--- a/data/2024/fid/FID-BIFO-DE-29.xlsx
+++ b/data/2024/fid/FID-BIFO-DE-29.xlsx
@@ -2179,10 +2179,10 @@
     <t>Nr. 1.1995 -</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>DE-5;DE-7;DE-8;DE-14-32;DE-16;DE-18;DE-210;DE-24;DE-31;DE-82;DE-90;DE-100;DE-107;DE-109;DE-188;DE-291;DE-355;DE-385;DE-465;DE-521;DE-703;DE-705;DE-551;DE-706</t>
+    <t>26</t>
+  </si>
+  <si>
+    <t>DE-5;DE-7;DE-8;DE-14-32;DE-16;DE-18;DE-210;DE-24;DE-31;DE-82;DE-90;DE-100;DE-107;DE-109;DE-188;DE-291;DE-355;DE-385;DE-465;DE-521;DE-703;DE-705;DE-708;DE-860;DE-551;DE-706</t>
   </si>
   <si>
     <t>1409257-8</t>
@@ -2407,10 +2407,10 @@
     <t>1.2006 - 4.2009; 4/5.2010 -</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>DE-31;DE-34-90;DE-109;DE-Sa16;DE-898;DE-L247;DE-D275;DE-38M;DE-753;DE-634;DE-1116;DE-578-3;DE-Bi10;DE-829;DE-60;DE-Rt3;DE-1866;DE-D165;DE-Zi4</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>DE-7;DE-31;DE-34-90;DE-109;DE-Sa16;DE-898;DE-700;DE-L247;DE-D275;DE-38M;DE-753;DE-634;DE-1116;DE-578-3;DE-Bi10;DE-829;DE-60;DE-Rt3;DE-960-7;DE-1866;DE-D165;DE-Zi4</t>
   </si>
   <si>
     <t>2151528-1</t>
@@ -2476,7 +2476,7 @@
     <t>45.2010 -</t>
   </si>
   <si>
-    <t>DE-28</t>
+    <t>DE-28;DE-89-15</t>
   </si>
   <si>
     <t>2236864-4</t>
@@ -4633,13 +4633,13 @@
         <v>32</v>
       </c>
       <c r="U14" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="V14" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="W14" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="X14" t="s">
         <v>57</v>
@@ -9869,13 +9869,13 @@
         <v>32</v>
       </c>
       <c r="U82" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="V82" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="W82" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="X82" t="s">
         <v>57</v>
@@ -12496,7 +12496,7 @@
         <v>32</v>
       </c>
       <c r="X116" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Y116" t="s">
         <v>820</v>
@@ -12872,13 +12872,13 @@
         <v>32</v>
       </c>
       <c r="U121" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="V121" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="W121" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="X121" t="s">
         <v>57</v>
